--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_errors_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_errors_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.5351204465965399</v>
+        <v>-1.66950562919271</v>
       </c>
       <c r="C2">
-        <v>-1.66950562919271</v>
+        <v>-0.2895456687149427</v>
       </c>
       <c r="D2">
-        <v>-0.2895456687149427</v>
+        <v>-0.6733414736251095</v>
       </c>
       <c r="E2">
-        <v>-0.6733414736251095</v>
+        <v>0.0115444171491989</v>
       </c>
       <c r="F2">
-        <v>0.0115444171491989</v>
+        <v>-0.6804809672324722</v>
       </c>
       <c r="G2">
-        <v>-0.6804809672324722</v>
+        <v>-0.4410326232298434</v>
       </c>
       <c r="H2">
-        <v>-0.4410326232298434</v>
+        <v>-0.4043046464706727</v>
       </c>
       <c r="I2">
-        <v>-0.4043046464706727</v>
+        <v>0.4221894279166428</v>
       </c>
       <c r="J2">
-        <v>0.4221894279166428</v>
+        <v>-0.2336087822049224</v>
       </c>
       <c r="K2">
-        <v>-0.2336087822049224</v>
+        <v>-0.8917590219305432</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.01136921538350649</v>
+        <v>-0.3724265895266604</v>
       </c>
       <c r="C3">
-        <v>-0.3724265895266604</v>
+        <v>0.3124593012476481</v>
       </c>
       <c r="D3">
-        <v>0.3124593012476481</v>
+        <v>-0.3795660831340231</v>
       </c>
       <c r="E3">
-        <v>-0.3795660831340231</v>
+        <v>-0.1401177391313942</v>
       </c>
       <c r="F3">
-        <v>-0.1401177391313942</v>
+        <v>-0.1033897623722235</v>
       </c>
       <c r="G3">
-        <v>-0.1033897623722235</v>
+        <v>0.723104312015092</v>
       </c>
       <c r="H3">
-        <v>0.723104312015092</v>
+        <v>0.06730610189352677</v>
       </c>
       <c r="I3">
-        <v>0.06730610189352677</v>
+        <v>-0.5908441378320941</v>
       </c>
       <c r="J3">
-        <v>-0.5908441378320941</v>
+        <v>-0.191729189980311</v>
       </c>
       <c r="K3">
-        <v>-0.191729189980311</v>
+        <v>-0.2531657321018884</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.9526635850093691</v>
+        <v>0.2606382006276979</v>
       </c>
       <c r="C4">
-        <v>0.2606382006276979</v>
+        <v>0.5000865446303268</v>
       </c>
       <c r="D4">
-        <v>0.5000865446303268</v>
+        <v>0.5368145213894975</v>
       </c>
       <c r="E4">
-        <v>0.5368145213894975</v>
+        <v>1.363308595776813</v>
       </c>
       <c r="F4">
-        <v>1.363308595776813</v>
+        <v>0.7075103856552477</v>
       </c>
       <c r="G4">
-        <v>0.7075103856552477</v>
+        <v>0.0493601459296269</v>
       </c>
       <c r="H4">
-        <v>0.0493601459296269</v>
+        <v>0.44847509378141</v>
       </c>
       <c r="I4">
-        <v>0.44847509378141</v>
+        <v>0.3870385516598326</v>
       </c>
       <c r="J4">
-        <v>0.3870385516598326</v>
+        <v>-0.04712738345727097</v>
       </c>
       <c r="K4">
-        <v>-0.04712738345727097</v>
+        <v>0.9316740086218059</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.4274989419678774</v>
+        <v>0.4642269187270481</v>
       </c>
       <c r="C5">
-        <v>0.4642269187270481</v>
+        <v>1.290720993114364</v>
       </c>
       <c r="D5">
-        <v>1.290720993114364</v>
+        <v>0.6349227829927984</v>
       </c>
       <c r="E5">
-        <v>0.6349227829927984</v>
+        <v>-0.02322745673282245</v>
       </c>
       <c r="F5">
-        <v>-0.02322745673282245</v>
+        <v>0.3758874911189606</v>
       </c>
       <c r="G5">
-        <v>0.3758874911189606</v>
+        <v>0.3144509489973832</v>
       </c>
       <c r="H5">
-        <v>0.3144509489973832</v>
+        <v>-0.1197149861197203</v>
       </c>
       <c r="I5">
-        <v>-0.1197149861197203</v>
+        <v>0.8590864059593566</v>
       </c>
       <c r="J5">
-        <v>0.8590864059593566</v>
+        <v>0.6319705015114304</v>
       </c>
       <c r="K5">
-        <v>0.6319705015114304</v>
+        <v>-0.001489227914658109</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.235029948750828</v>
+        <v>0.5792317386292632</v>
       </c>
       <c r="C6">
-        <v>0.5792317386292632</v>
+        <v>-0.07891850109635756</v>
       </c>
       <c r="D6">
-        <v>-0.07891850109635756</v>
+        <v>0.3201964467554255</v>
       </c>
       <c r="E6">
-        <v>0.3201964467554255</v>
+        <v>0.2587599046338481</v>
       </c>
       <c r="F6">
-        <v>0.2587599046338481</v>
+        <v>-0.1754060304832554</v>
       </c>
       <c r="G6">
-        <v>-0.1754060304832554</v>
+        <v>0.8033953615958215</v>
       </c>
       <c r="H6">
-        <v>0.8033953615958215</v>
+        <v>0.5762794571478953</v>
       </c>
       <c r="I6">
-        <v>0.5762794571478953</v>
+        <v>-0.05718027227819322</v>
       </c>
       <c r="J6">
-        <v>-0.05718027227819322</v>
+        <v>0.3702166863774111</v>
       </c>
       <c r="K6">
-        <v>0.3702166863774111</v>
+        <v>0.2038797316892642</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.4329776612703231</v>
+        <v>-0.03386271341853997</v>
       </c>
       <c r="C7">
-        <v>-0.03386271341853997</v>
+        <v>-0.09529925554011737</v>
       </c>
       <c r="D7">
-        <v>-0.09529925554011737</v>
+        <v>-0.529465190657221</v>
       </c>
       <c r="E7">
-        <v>-0.529465190657221</v>
+        <v>0.449336201421856</v>
       </c>
       <c r="F7">
-        <v>0.449336201421856</v>
+        <v>0.2222202969739298</v>
       </c>
       <c r="G7">
-        <v>0.2222202969739298</v>
+        <v>-0.4112394324521587</v>
       </c>
       <c r="H7">
-        <v>-0.4112394324521587</v>
+        <v>0.01615752620344563</v>
       </c>
       <c r="I7">
-        <v>0.01615752620344563</v>
+        <v>-0.1501794284847013</v>
       </c>
       <c r="J7">
-        <v>-0.1501794284847013</v>
+        <v>-0.02746841204387546</v>
       </c>
       <c r="K7">
-        <v>-0.02746841204387546</v>
+        <v>0.01976532451126484</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.1856174723396913</v>
+        <v>-0.6197834074567948</v>
       </c>
       <c r="C8">
-        <v>-0.6197834074567948</v>
+        <v>0.3590179846222821</v>
       </c>
       <c r="D8">
-        <v>0.3590179846222821</v>
+        <v>0.1319020801743559</v>
       </c>
       <c r="E8">
-        <v>0.1319020801743559</v>
+        <v>-0.5015576492517326</v>
       </c>
       <c r="F8">
-        <v>-0.5015576492517326</v>
+        <v>-0.07416069059612829</v>
       </c>
       <c r="G8">
-        <v>-0.07416069059612829</v>
+        <v>-0.2404976452842752</v>
       </c>
       <c r="H8">
-        <v>-0.2404976452842752</v>
+        <v>-0.1177866288434494</v>
       </c>
       <c r="I8">
-        <v>-0.1177866288434494</v>
+        <v>-0.07055289228830908</v>
       </c>
       <c r="J8">
-        <v>-0.07055289228830908</v>
+        <v>-0.4671716238107607</v>
       </c>
       <c r="K8">
-        <v>-0.4671716238107607</v>
+        <v>-0.2131195886870406</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.4273407187267424</v>
+        <v>0.2002248142788162</v>
       </c>
       <c r="C9">
-        <v>0.2002248142788162</v>
+        <v>-0.4332349151472724</v>
       </c>
       <c r="D9">
-        <v>-0.4332349151472724</v>
+        <v>-0.005837956491668017</v>
       </c>
       <c r="E9">
-        <v>-0.005837956491668017</v>
+        <v>-0.1721749111798149</v>
       </c>
       <c r="F9">
-        <v>-0.1721749111798149</v>
+        <v>-0.0494638947389891</v>
       </c>
       <c r="G9">
-        <v>-0.0494638947389891</v>
+        <v>-0.002230158183848807</v>
       </c>
       <c r="H9">
-        <v>-0.002230158183848807</v>
+        <v>-0.3988488897063004</v>
       </c>
       <c r="I9">
-        <v>-0.3988488897063004</v>
+        <v>-0.1447968545825803</v>
       </c>
       <c r="J9">
-        <v>-0.1447968545825803</v>
+        <v>0.07532753529099229</v>
       </c>
       <c r="K9">
-        <v>0.07532753529099229</v>
+        <v>-0.1604609132956759</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.5318964931771777</v>
+        <v>-0.1044995345215733</v>
       </c>
       <c r="C10">
-        <v>-0.1044995345215733</v>
+        <v>-0.2708364892097202</v>
       </c>
       <c r="D10">
-        <v>-0.2708364892097202</v>
+        <v>-0.1481254727688944</v>
       </c>
       <c r="E10">
-        <v>-0.1481254727688944</v>
+        <v>-0.1008917362137541</v>
       </c>
       <c r="F10">
-        <v>-0.1008917362137541</v>
+        <v>-0.4975104677362057</v>
       </c>
       <c r="G10">
-        <v>-0.4975104677362057</v>
+        <v>-0.2434584326124856</v>
       </c>
       <c r="H10">
-        <v>-0.2434584326124856</v>
+        <v>-0.02333404273891299</v>
       </c>
       <c r="I10">
-        <v>-0.02333404273891299</v>
+        <v>-0.2591224913255812</v>
       </c>
       <c r="J10">
-        <v>-0.2591224913255812</v>
+        <v>-0.4380952487963659</v>
       </c>
       <c r="K10">
-        <v>-0.4380952487963659</v>
+        <v>-0.4486557790556869</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.1938269109680474</v>
+        <v>-0.07111589452722158</v>
       </c>
       <c r="C11">
-        <v>-0.07111589452722158</v>
+        <v>-0.02388215797208129</v>
       </c>
       <c r="D11">
-        <v>-0.02388215797208129</v>
+        <v>-0.4205008894945329</v>
       </c>
       <c r="E11">
-        <v>-0.4205008894945329</v>
+        <v>-0.1664488543708128</v>
       </c>
       <c r="F11">
-        <v>-0.1664488543708128</v>
+        <v>0.0536755355027598</v>
       </c>
       <c r="G11">
-        <v>0.0536755355027598</v>
+        <v>-0.1821129130839084</v>
       </c>
       <c r="H11">
-        <v>-0.1821129130839084</v>
+        <v>-0.3610856705546931</v>
       </c>
       <c r="I11">
-        <v>-0.3610856705546931</v>
+        <v>-0.3716462008140141</v>
       </c>
       <c r="J11">
-        <v>-0.3716462008140141</v>
+        <v>-0.5793653109721442</v>
       </c>
       <c r="K11">
-        <v>-0.5793653109721442</v>
+        <v>-0.3621564114972394</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.1476338940440795</v>
+        <v>-0.2489848374783721</v>
       </c>
       <c r="C12">
-        <v>-0.2489848374783721</v>
+        <v>0.005067197645347965</v>
       </c>
       <c r="D12">
-        <v>0.005067197645347965</v>
+        <v>0.2251915875189206</v>
       </c>
       <c r="E12">
-        <v>0.2251915875189206</v>
+        <v>-0.0105968610677476</v>
       </c>
       <c r="F12">
-        <v>-0.0105968610677476</v>
+        <v>-0.1895696185385323</v>
       </c>
       <c r="G12">
-        <v>-0.1895696185385323</v>
+        <v>-0.2001301487978533</v>
       </c>
       <c r="H12">
-        <v>-0.2001301487978533</v>
+        <v>-0.4078492589559834</v>
       </c>
       <c r="I12">
-        <v>-0.4078492589559834</v>
+        <v>-0.1906403594810787</v>
       </c>
       <c r="J12">
-        <v>-0.1906403594810787</v>
+        <v>0.1190458097769828</v>
       </c>
       <c r="K12">
-        <v>0.1190458097769828</v>
+        <v>-0.03525832405502122</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.0323979044984018</v>
+        <v>0.1877264853751708</v>
       </c>
       <c r="C13">
-        <v>0.1877264853751708</v>
+        <v>-0.04806196321149736</v>
       </c>
       <c r="D13">
-        <v>-0.04806196321149736</v>
+        <v>-0.2270347206822821</v>
       </c>
       <c r="E13">
-        <v>-0.2270347206822821</v>
+        <v>-0.2375952509416031</v>
       </c>
       <c r="F13">
-        <v>-0.2375952509416031</v>
+        <v>-0.4453143610997332</v>
       </c>
       <c r="G13">
-        <v>-0.4453143610997332</v>
+        <v>-0.2281054616248284</v>
       </c>
       <c r="H13">
-        <v>-0.2281054616248284</v>
+        <v>0.08158070763323305</v>
       </c>
       <c r="I13">
-        <v>0.08158070763323305</v>
+        <v>-0.07272342619877098</v>
       </c>
       <c r="J13">
-        <v>-0.07272342619877098</v>
+        <v>0.5777029950204122</v>
       </c>
       <c r="K13">
-        <v>0.5777029950204122</v>
+        <v>0.361537946402203</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.06996447561954</v>
+        <v>-0.2489372330903247</v>
       </c>
       <c r="C14">
-        <v>-0.2489372330903247</v>
+        <v>-0.2594977633496457</v>
       </c>
       <c r="D14">
-        <v>-0.2594977633496457</v>
+        <v>-0.4672168735077758</v>
       </c>
       <c r="E14">
-        <v>-0.4672168735077758</v>
+        <v>-0.2500079740328711</v>
       </c>
       <c r="F14">
-        <v>-0.2500079740328711</v>
+        <v>0.05967819522519041</v>
       </c>
       <c r="G14">
-        <v>0.05967819522519041</v>
+        <v>-0.09462593860681362</v>
       </c>
       <c r="H14">
-        <v>-0.09462593860681362</v>
+        <v>0.5558004826123696</v>
       </c>
       <c r="I14">
-        <v>0.5558004826123696</v>
+        <v>0.3396354339941604</v>
       </c>
       <c r="J14">
-        <v>0.3396354339941604</v>
+        <v>-0.0673936950407959</v>
       </c>
       <c r="K14">
-        <v>-0.0673936950407959</v>
+        <v>0.4316485221366239</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.1713918715036764</v>
+        <v>-0.3791109816618064</v>
       </c>
       <c r="C15">
-        <v>-0.3791109816618064</v>
+        <v>-0.1619020821869017</v>
       </c>
       <c r="D15">
-        <v>-0.1619020821869017</v>
+        <v>0.1477840870711598</v>
       </c>
       <c r="E15">
-        <v>0.1477840870711598</v>
+        <v>-0.006520046760844223</v>
       </c>
       <c r="F15">
-        <v>-0.006520046760844223</v>
+        <v>0.643906374458339</v>
       </c>
       <c r="G15">
-        <v>0.643906374458339</v>
+        <v>0.4277413258401298</v>
       </c>
       <c r="H15">
-        <v>0.4277413258401298</v>
+        <v>0.0207121968051735</v>
       </c>
       <c r="I15">
-        <v>0.0207121968051735</v>
+        <v>0.5197544139825933</v>
       </c>
       <c r="J15">
-        <v>0.5197544139825933</v>
+        <v>0.3609055008270807</v>
       </c>
       <c r="K15">
-        <v>0.3609055008270807</v>
+        <v>0.4170693217973248</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,179 +1003,314 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06818896562035748</v>
+        <v>0.241497203637704</v>
       </c>
       <c r="C16">
-        <v>0.241497203637704</v>
+        <v>0.08719306980569996</v>
       </c>
       <c r="D16">
-        <v>0.08719306980569996</v>
+        <v>0.7376194910248832</v>
       </c>
       <c r="E16">
-        <v>0.7376194910248832</v>
+        <v>0.521454442406674</v>
       </c>
       <c r="F16">
-        <v>0.521454442406674</v>
+        <v>0.1144253133717177</v>
       </c>
       <c r="G16">
-        <v>0.1144253133717177</v>
+        <v>0.6134675305491375</v>
       </c>
       <c r="H16">
-        <v>0.6134675305491375</v>
+        <v>0.4546186173936249</v>
       </c>
       <c r="I16">
-        <v>0.4546186173936249</v>
+        <v>0.5107824383638689</v>
       </c>
       <c r="J16">
-        <v>0.5107824383638689</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>2.760585277975261</v>
+      </c>
+      <c r="K16">
+        <v>10.22973560883255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.2497007499081394</v>
+        <v>0.09539661607613537</v>
       </c>
       <c r="C17">
-        <v>0.09539661607613537</v>
+        <v>0.7458230372953185</v>
       </c>
       <c r="D17">
-        <v>0.7458230372953185</v>
+        <v>0.5296579886771094</v>
       </c>
       <c r="E17">
-        <v>0.5296579886771094</v>
+        <v>0.1226288596421531</v>
       </c>
       <c r="F17">
-        <v>0.1226288596421531</v>
+        <v>0.6216710768195729</v>
       </c>
       <c r="G17">
-        <v>0.6216710768195729</v>
+        <v>0.4628221636640603</v>
       </c>
       <c r="H17">
-        <v>0.4628221636640603</v>
+        <v>0.5189859846343043</v>
       </c>
       <c r="I17">
-        <v>0.5189859846343043</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>2.768788824245696</v>
+      </c>
+      <c r="J17">
+        <v>10.23793915510299</v>
+      </c>
+      <c r="K17">
+        <v>-7.933322645034479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.09280705542466716</v>
+        <v>0.7432334766438504</v>
       </c>
       <c r="C18">
-        <v>0.7432334766438504</v>
+        <v>0.5270684280256412</v>
       </c>
       <c r="D18">
-        <v>0.5270684280256412</v>
+        <v>0.1200392989906849</v>
       </c>
       <c r="E18">
-        <v>0.1200392989906849</v>
+        <v>0.6190815161681047</v>
       </c>
       <c r="F18">
-        <v>0.6190815161681047</v>
+        <v>0.4602326030125921</v>
       </c>
       <c r="G18">
-        <v>0.4602326030125921</v>
+        <v>0.5163964239828361</v>
       </c>
       <c r="H18">
-        <v>0.5163964239828361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>2.766199263594229</v>
+      </c>
+      <c r="I18">
+        <v>10.23534959445152</v>
+      </c>
+      <c r="J18">
+        <v>-7.935912205685947</v>
+      </c>
+      <c r="K18">
+        <v>0.2037593412932021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.7497668092269023</v>
+        <v>0.5336017606086931</v>
       </c>
       <c r="C19">
-        <v>0.5336017606086931</v>
+        <v>0.1265726315737368</v>
       </c>
       <c r="D19">
-        <v>0.1265726315737368</v>
+        <v>0.6256148487511566</v>
       </c>
       <c r="E19">
-        <v>0.6256148487511566</v>
+        <v>0.466765935595644</v>
       </c>
       <c r="F19">
-        <v>0.466765935595644</v>
+        <v>0.522929756565888</v>
       </c>
       <c r="G19">
-        <v>0.522929756565888</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>2.77273259617728</v>
+      </c>
+      <c r="H19">
+        <v>10.24188292703457</v>
+      </c>
+      <c r="I19">
+        <v>-7.929378873102896</v>
+      </c>
+      <c r="J19">
+        <v>0.2102926738762539</v>
+      </c>
+      <c r="K19">
+        <v>2.357863145675646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.4223850656296224</v>
+        <v>0.01535593659466611</v>
       </c>
       <c r="C20">
-        <v>0.01535593659466611</v>
+        <v>0.5143981537720859</v>
       </c>
       <c r="D20">
-        <v>0.5143981537720859</v>
+        <v>0.3555492406165733</v>
       </c>
       <c r="E20">
-        <v>0.3555492406165733</v>
+        <v>0.4117130615868174</v>
       </c>
       <c r="F20">
-        <v>0.4117130615868174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>2.661515901198209</v>
+      </c>
+      <c r="G20">
+        <v>10.1306662320555</v>
+      </c>
+      <c r="H20">
+        <v>-8.040595568081965</v>
+      </c>
+      <c r="I20">
+        <v>0.09907597889718328</v>
+      </c>
+      <c r="J20">
+        <v>2.246646450696576</v>
+      </c>
+      <c r="K20">
+        <v>-1.193383535826754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.02639020739223796</v>
+        <v>0.4726520097851818</v>
       </c>
       <c r="C21">
-        <v>0.4726520097851818</v>
+        <v>0.3138030966296693</v>
       </c>
       <c r="D21">
-        <v>0.3138030966296693</v>
+        <v>0.3699669175999133</v>
       </c>
       <c r="E21">
-        <v>0.3699669175999133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>2.619769757211305</v>
+      </c>
+      <c r="F21">
+        <v>10.0889200880686</v>
+      </c>
+      <c r="G21">
+        <v>-8.082341712068869</v>
+      </c>
+      <c r="H21">
+        <v>0.05732983491027921</v>
+      </c>
+      <c r="I21">
+        <v>2.204900306709672</v>
+      </c>
+      <c r="J21">
+        <v>-1.235129679813658</v>
+      </c>
+      <c r="K21">
+        <v>-1.296303858227859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.4979670725178967</v>
+        <v>0.3391181593623842</v>
       </c>
       <c r="C22">
-        <v>0.3391181593623842</v>
+        <v>0.3952819803326282</v>
       </c>
       <c r="D22">
-        <v>0.3952819803326282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>2.64508481994402</v>
+      </c>
+      <c r="E22">
+        <v>10.11423515080131</v>
+      </c>
+      <c r="F22">
+        <v>-8.057026649336155</v>
+      </c>
+      <c r="G22">
+        <v>0.0826448976429941</v>
+      </c>
+      <c r="H22">
+        <v>2.230215369442386</v>
+      </c>
+      <c r="I22">
+        <v>-1.209814617080943</v>
+      </c>
+      <c r="J22">
+        <v>-1.270988795495144</v>
+      </c>
+      <c r="K22">
+        <v>0.77046714166111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.343156824405298</v>
+        <v>0.3993206453755421</v>
       </c>
       <c r="C23">
-        <v>0.3993206453755421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>2.649123484986935</v>
+      </c>
+      <c r="D23">
+        <v>10.11827381584423</v>
+      </c>
+      <c r="E23">
+        <v>-8.052987984293241</v>
+      </c>
+      <c r="F23">
+        <v>0.08668356268590799</v>
+      </c>
+      <c r="G23">
+        <v>2.2342540344853</v>
+      </c>
+      <c r="H23">
+        <v>-1.20577595203803</v>
+      </c>
+      <c r="I23">
+        <v>-1.266950130452231</v>
+      </c>
+      <c r="J23">
+        <v>0.7745058067040239</v>
+      </c>
+      <c r="K23">
+        <v>0.1919112696703829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.2804435086845197</v>
+        <v>2.530246348295912</v>
+      </c>
+      <c r="C24">
+        <v>9.999396679153206</v>
+      </c>
+      <c r="D24">
+        <v>-8.171865120984263</v>
+      </c>
+      <c r="E24">
+        <v>-0.03219357400511441</v>
+      </c>
+      <c r="F24">
+        <v>2.115376897794278</v>
+      </c>
+      <c r="G24">
+        <v>-1.324653088729052</v>
+      </c>
+      <c r="H24">
+        <v>-1.385827267143253</v>
+      </c>
+      <c r="I24">
+        <v>0.6556286700130015</v>
+      </c>
+      <c r="J24">
+        <v>0.07303413297936051</v>
+      </c>
+      <c r="K24">
+        <v>0.1687091737887183</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_errors_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_errors_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.5351204465965399</v>
+      </c>
+      <c r="C2">
         <v>-1.66950562919271</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.2895456687149427</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.6733414736251095</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.0115444171491989</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.6804809672324722</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.4410326232298434</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.4043046464706727</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.4221894279166428</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.2336087822049224</v>
-      </c>
-      <c r="K2">
-        <v>-0.8917590219305432</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0.01136921538350649</v>
+      </c>
+      <c r="C3">
         <v>-0.3724265895266604</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.3124593012476481</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.3795660831340231</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.1401177391313942</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.1033897623722235</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.723104312015092</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.06730610189352677</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.5908441378320941</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.191729189980311</v>
-      </c>
-      <c r="K3">
-        <v>-0.2531657321018884</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.9526635850093691</v>
+      </c>
+      <c r="C4">
         <v>0.2606382006276979</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.5000865446303268</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.5368145213894975</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.363308595776813</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.7075103856552477</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.0493601459296269</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.44847509378141</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.3870385516598326</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.04712738345727097</v>
-      </c>
-      <c r="K4">
-        <v>0.9316740086218059</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.4274989419678774</v>
+      </c>
+      <c r="C5">
         <v>0.4642269187270481</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.290720993114364</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.6349227829927984</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.02322745673282245</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.3758874911189606</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3144509489973832</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.1197149861197203</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.8590864059593566</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.6319705015114304</v>
-      </c>
-      <c r="K5">
-        <v>-0.001489227914658109</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.235029948750828</v>
+      </c>
+      <c r="C6">
         <v>0.5792317386292632</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.07891850109635756</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.3201964467554255</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.2587599046338481</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.1754060304832554</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.8033953615958215</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.5762794571478953</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.05718027227819322</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.3702166863774111</v>
-      </c>
-      <c r="K6">
-        <v>0.2038797316892642</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.4329776612703231</v>
+      </c>
+      <c r="C7">
         <v>-0.03386271341853997</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.09529925554011737</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.529465190657221</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.449336201421856</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.2222202969739298</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.4112394324521587</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.01615752620344563</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.1501794284847013</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.02746841204387546</v>
-      </c>
-      <c r="K7">
-        <v>0.01976532451126484</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.1856174723396913</v>
+      </c>
+      <c r="C8">
         <v>-0.6197834074567948</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3590179846222821</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.1319020801743559</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.5015576492517326</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.07416069059612829</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.2404976452842752</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.1177866288434494</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.07055289228830908</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.4671716238107607</v>
-      </c>
-      <c r="K8">
-        <v>-0.2131195886870406</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.4273407187267424</v>
+      </c>
+      <c r="C9">
         <v>0.2002248142788162</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.4332349151472724</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.005837956491668017</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.1721749111798149</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.0494638947389891</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.002230158183848807</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.3988488897063004</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.1447968545825803</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.07532753529099229</v>
-      </c>
-      <c r="K9">
-        <v>-0.1604609132956759</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.5318964931771777</v>
+      </c>
+      <c r="C10">
         <v>-0.1044995345215733</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.2708364892097202</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.1481254727688944</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.1008917362137541</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.4975104677362057</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.2434584326124856</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.02333404273891299</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.2591224913255812</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.4380952487963659</v>
-      </c>
-      <c r="K10">
-        <v>-0.4486557790556869</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.1938269109680474</v>
+      </c>
+      <c r="C11">
         <v>-0.07111589452722158</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.02388215797208129</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.4205008894945329</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.1664488543708128</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0536755355027598</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.1821129130839084</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.3610856705546931</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.3716462008140141</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.5793653109721442</v>
-      </c>
-      <c r="K11">
-        <v>-0.3621564114972394</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.1476338940440795</v>
+      </c>
+      <c r="C12">
         <v>-0.2489848374783721</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.005067197645347965</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2251915875189206</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.0105968610677476</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.1895696185385323</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.2001301487978533</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.4078492589559834</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.1906403594810787</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.1190458097769828</v>
-      </c>
-      <c r="K12">
-        <v>-0.03525832405502122</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.0323979044984018</v>
+      </c>
+      <c r="C13">
         <v>0.1877264853751708</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.04806196321149736</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.2270347206822821</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.2375952509416031</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.4453143610997332</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.2281054616248284</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.08158070763323305</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.07272342619877098</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.5777029950204122</v>
-      </c>
-      <c r="K13">
-        <v>0.361537946402203</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.06996447561954</v>
+      </c>
+      <c r="C14">
         <v>-0.2489372330903247</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.2594977633496457</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.4672168735077758</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.2500079740328711</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.05967819522519041</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.09462593860681362</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.5558004826123696</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.3396354339941604</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.0673936950407959</v>
-      </c>
-      <c r="K14">
-        <v>0.4316485221366239</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.1713918715036764</v>
+      </c>
+      <c r="C15">
         <v>-0.3791109816618064</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.1619020821869017</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.1477840870711598</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.006520046760844223</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.643906374458339</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.4277413258401298</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.0207121968051735</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.5197544139825933</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.3609055008270807</v>
-      </c>
-      <c r="K15">
-        <v>0.4170693217973248</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,34 +1003,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.06818896562035748</v>
+      </c>
+      <c r="C16">
         <v>0.241497203637704</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.08719306980569996</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.7376194910248832</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.521454442406674</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.1144253133717177</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.6134675305491375</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.4546186173936249</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.5107824383638689</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.760585277975261</v>
-      </c>
-      <c r="K16">
-        <v>10.22973560883255</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1038,34 +1038,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.2497007499081394</v>
+      </c>
+      <c r="C17">
         <v>0.09539661607613537</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.7458230372953185</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.5296579886771094</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.1226288596421531</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.6216710768195729</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.4628221636640603</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.5189859846343043</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.768788824245696</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>10.23793915510299</v>
-      </c>
-      <c r="K17">
-        <v>-7.933322645034479</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1073,34 +1073,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.09280705542466716</v>
+      </c>
+      <c r="C18">
         <v>0.7432334766438504</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.5270684280256412</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.1200392989906849</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.6190815161681047</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.4602326030125921</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.5163964239828361</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.766199263594229</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>10.23534959445152</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-7.935912205685947</v>
-      </c>
-      <c r="K18">
-        <v>0.2037593412932021</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1108,34 +1108,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.7497668092269023</v>
+      </c>
+      <c r="C19">
         <v>0.5336017606086931</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.1265726315737368</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.6256148487511566</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.466765935595644</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.522929756565888</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.77273259617728</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>10.24188292703457</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-7.929378873102896</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.2102926738762539</v>
-      </c>
-      <c r="K19">
-        <v>2.357863145675646</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1143,34 +1143,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.4223850656296224</v>
+      </c>
+      <c r="C20">
         <v>0.01535593659466611</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.5143981537720859</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.3555492406165733</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.4117130615868174</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.661515901198209</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>10.1306662320555</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-8.040595568081965</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.09907597889718328</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2.246646450696576</v>
-      </c>
-      <c r="K20">
-        <v>-1.193383535826754</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1178,34 +1178,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.02639020739223796</v>
+      </c>
+      <c r="C21">
         <v>0.4726520097851818</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3138030966296693</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3699669175999133</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.619769757211305</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>10.0889200880686</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-8.082341712068869</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.05732983491027921</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.204900306709672</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-1.235129679813658</v>
-      </c>
-      <c r="K21">
-        <v>-1.296303858227859</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1213,34 +1213,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.4979670725178967</v>
+      </c>
+      <c r="C22">
         <v>0.3391181593623842</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.3952819803326282</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2.64508481994402</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>10.11423515080131</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-8.057026649336155</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.0826448976429941</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2.230215369442386</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1.209814617080943</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-1.270988795495144</v>
-      </c>
-      <c r="K22">
-        <v>0.77046714166111</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1248,34 +1248,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.343156824405298</v>
+      </c>
+      <c r="C23">
         <v>0.3993206453755421</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2.649123484986935</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>10.11827381584423</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-8.052987984293241</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.08668356268590799</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2.2342540344853</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-1.20577595203803</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-1.266950130452231</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.7745058067040239</v>
-      </c>
-      <c r="K23">
-        <v>0.1919112696703829</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1283,34 +1283,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.2804435086845197</v>
+      </c>
+      <c r="C24">
         <v>2.530246348295912</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>9.999396679153206</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-8.171865120984263</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.03219357400511441</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2.115376897794278</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-1.324653088729052</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-1.385827267143253</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.6556286700130015</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.07303413297936051</v>
-      </c>
-      <c r="K24">
-        <v>0.1687091737887183</v>
       </c>
     </row>
   </sheetData>
